--- a/Titus/Gurobi code/Final/Input/J-Donderdag.xlsx
+++ b/Titus/Gurobi code/Final/Input/J-Donderdag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\Titus\Gurobi code\Final\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{369C2A22-85AC-4AF5-8F3A-23A81E0D1DDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BE5F801-9CCC-4498-805E-D8A0DC74E7C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{5FEAE151-3161-43ED-ACBB-0EF5E584E0C9}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{A4F0F74E-70B7-473D-AF25-A3C014D44D69}"/>
   </bookViews>
   <sheets>
     <sheet name="Thursday" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464C6382-DE33-4344-AD4B-4B1203415B07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBABD7E-05BA-4552-B658-B5F3245F88D5}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -480,13 +480,13 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>4594.4252701317137</v>
+        <v>4594</v>
       </c>
       <c r="C1">
-        <v>3585.8928937613382</v>
+        <v>3586</v>
       </c>
       <c r="D1">
-        <v>3249.7154349712118</v>
+        <v>3250</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>5210.7506112469437</v>
+        <v>5210</v>
       </c>
       <c r="C2">
-        <v>3978.0999290164841</v>
+        <v>3978</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>5546.9280700370691</v>
+        <v>5545</v>
       </c>
       <c r="C3">
-        <v>4986.63230538686</v>
+        <v>4986</v>
       </c>
       <c r="D3">
-        <v>3081.62670557615</v>
+        <v>3082</v>
       </c>
       <c r="E3">
-        <v>2801.478823251045</v>
+        <v>2802</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>2913.5379761810868</v>
+        <v>2914</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -560,10 +560,10 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>5210.7506112469437</v>
+        <v>5210</v>
       </c>
       <c r="C5">
-        <v>3473.8337408312959</v>
+        <v>3474</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -580,16 +580,16 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>5490.8984935720482</v>
+        <v>5489</v>
       </c>
       <c r="C6">
-        <v>4650.4548465967346</v>
+        <v>4650</v>
       </c>
       <c r="D6">
-        <v>3249.7154349712118</v>
+        <v>3250</v>
       </c>
       <c r="E6">
-        <v>3249.7154349712118</v>
+        <v>3250</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>4762.5139995267764</v>
+        <v>4762</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>3361.7745879012541</v>
+        <v>3362</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>4538.3956936666928</v>
+        <v>4538</v>
       </c>
       <c r="C10">
-        <v>3249.7154349712118</v>
+        <v>3250</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>5546.9280700370691</v>
+        <v>5545</v>
       </c>
       <c r="C11">
-        <v>4482.3661172016718</v>
+        <v>4482</v>
       </c>
       <c r="D11">
-        <v>3641.9224702263591</v>
+        <v>3642</v>
       </c>
       <c r="E11">
-        <v>2465.30136446092</v>
+        <v>2466</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>3978.0999290164841</v>
+        <v>3978</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>5378.8393406420064</v>
+        <v>5378</v>
       </c>
       <c r="C13">
-        <v>3810.0111996214209</v>
+        <v>3810</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>3697.95204669138</v>
+        <v>3698</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>4090.1590819465259</v>
+        <v>4090</v>
       </c>
       <c r="C16">
-        <v>3249.7154349712118</v>
+        <v>3250</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>3866.0407760864418</v>
+        <v>3866</v>
       </c>
       <c r="C17">
-        <v>3305.7450114362332</v>
+        <v>3306</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>3249.7154349712118</v>
+        <v>3250</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -860,10 +860,10 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>3978.0999290164841</v>
+        <v>3978</v>
       </c>
       <c r="C20">
-        <v>3810.0111996214209</v>
+        <v>3810</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>4538.3956936666928</v>
+        <v>4538</v>
       </c>
       <c r="C21">
-        <v>3305.7450114362332</v>
+        <v>3306</v>
       </c>
       <c r="D21">
-        <v>3193.6858585061909</v>
+        <v>3194</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -900,16 +900,16 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>5322.8097641769846</v>
+        <v>5322</v>
       </c>
       <c r="C22">
-        <v>3922.0703525514632</v>
+        <v>3922</v>
       </c>
       <c r="D22">
-        <v>3697.95204669138</v>
+        <v>3698</v>
       </c>
       <c r="E22">
-        <v>2297.2126350658568</v>
+        <v>2298</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>5</v>
       </c>
       <c r="B24">
-        <v>4426.3365407366509</v>
+        <v>4426</v>
       </c>
       <c r="C24">
-        <v>4202.2182348765673</v>
+        <v>4202</v>
       </c>
       <c r="D24">
-        <v>2913.5379761810868</v>
+        <v>2914</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -960,13 +960,13 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>4146.1886584115464</v>
+        <v>4146</v>
       </c>
       <c r="C25">
-        <v>4034.129505481505</v>
+        <v>4034</v>
       </c>
       <c r="D25">
-        <v>3978.0999290164841</v>
+        <v>3978</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>5322.8097641769846</v>
+        <v>5322</v>
       </c>
       <c r="C26">
-        <v>5266.7801877119646</v>
+        <v>5266</v>
       </c>
       <c r="D26">
-        <v>3866.0407760864418</v>
+        <v>3866</v>
       </c>
       <c r="E26">
-        <v>2577.3605173909609</v>
+        <v>2578</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>4034.129505481505</v>
+        <v>4034</v>
       </c>
       <c r="C27">
-        <v>3922.0703525514632</v>
+        <v>3922</v>
       </c>
       <c r="D27">
-        <v>2801.478823251045</v>
+        <v>2802</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>2801.478823251045</v>
+        <v>2802</v>
       </c>
       <c r="C28">
         <v>0</v>
